--- a/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62456F3-79CE-46CC-8095-317FCF049755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EE434-FE84-4F69-B2A4-AB3035705526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXERCÍCIO" sheetId="4" r:id="rId2"/>
-    <sheet name="EXERCÍCIO-RESOLVIDO" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="EXERCÍCIO-RESOLVIDO" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>Manufatura</t>
   </si>
@@ -113,12 +136,6 @@
   </si>
   <si>
     <t>TOTAL (SEM DESCONTO)</t>
-  </si>
-  <si>
-    <t>MANUFATURA</t>
-  </si>
-  <si>
-    <t>TORNO</t>
   </si>
   <si>
     <t>EXERCÍCIO</t>
@@ -161,9 +178,6 @@
 Automaticamente deverá sair o valor total (valor unitário*quantidade). No entanto, caso não tenha quantidade desejada em estoque, deve ser alertado através de uma mensagem (ALERTA DE ESTOQUE!). Qualquer erro deve ser avisado para usuário verificar o preenchimento. 
 Utilize a tabela de descontos abaixo como base de cálculo; e insira uma formatação condicional por tipo, conforme tabela abaixo, para deixar visualmente fácil a interepretação do pedido. 
 Faça o exercício na aba Exercício.</t>
-  </si>
-  <si>
-    <t>ALERTA DE ERRO!</t>
   </si>
   <si>
     <t>*resolução = aba oculta</t>
@@ -705,7 +719,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -978,6 +992,13 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1579,7 +1600,7 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:Q15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1608,7 @@
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -1679,7 +1700,7 @@
     </row>
     <row r="8" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
@@ -1703,7 +1724,7 @@
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -1813,20 +1834,20 @@
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19">
@@ -1835,7 +1856,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19">
@@ -1844,7 +1865,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22">
@@ -1854,7 +1875,7 @@
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1862,7 +1883,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1870,7 +1891,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1878,7 +1899,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1896,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:Q31"/>
+  <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,13 +1928,15 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -2005,7 +2028,7 @@
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P7" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
@@ -2177,7 +2200,7 @@
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -2226,14 +2249,15 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
+        <f>IF(C21&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="59" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="61"/>
@@ -2241,21 +2265,23 @@
         <v>1</v>
       </c>
       <c r="I21" s="58"/>
-      <c r="J21" s="62">
-        <v>9000</v>
-      </c>
-      <c r="K21" s="62"/>
+      <c r="J21" s="109" cm="1">
+        <f t="array" ref="J21">_xlfn.IFS($C21=$B$8,IF(VLOOKUP($E21,$B$9:$D$15,2,FALSE)&gt;=$H21,VLOOKUP($E21,$B$9:$D$15,3,FALSE)*$H21,"Qtd fora de estoque!"))</f>
+        <v>50000</v>
+      </c>
+      <c r="K21" s="109"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
+        <f>IF(C22&lt;&gt;"",B21+1,"")</f>
         <v>2</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D22" s="53"/>
       <c r="E22" s="54" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="56"/>
@@ -2263,46 +2289,59 @@
         <v>2</v>
       </c>
       <c r="I22" s="53"/>
-      <c r="J22" s="53" t="s">
-        <v>42</v>
-      </c>
+      <c r="J22" s="53"/>
       <c r="K22" s="53"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
+      <c r="B23" s="27">
+        <f t="shared" ref="B23:B28" si="0">IF(C23&lt;&gt;"",B22+1,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="61"/>
       <c r="E23" s="59" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="61"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="58">
+        <v>1</v>
+      </c>
       <c r="I23" s="58"/>
       <c r="J23" s="63"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="B24" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="54" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
+      <c r="H24" s="53">
+        <v>2</v>
+      </c>
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
       <c r="K24" s="53"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59" t="s">
-        <v>28</v>
-      </c>
+      <c r="B25" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="60"/>
       <c r="G25" s="61"/>
       <c r="H25" s="58"/>
@@ -2311,12 +2350,13 @@
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54" t="s">
-        <v>28</v>
-      </c>
+      <c r="B26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="55"/>
       <c r="G26" s="56"/>
       <c r="H26" s="53"/>
@@ -2325,12 +2365,13 @@
       <c r="K26" s="53"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59" t="s">
-        <v>28</v>
-      </c>
+      <c r="B27" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="59"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="60"/>
       <c r="G27" s="61"/>
       <c r="H27" s="58"/>
@@ -2339,12 +2380,13 @@
       <c r="K27" s="62"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54" t="s">
-        <v>28</v>
-      </c>
+      <c r="B28" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="55"/>
       <c r="G28" s="56"/>
       <c r="H28" s="53"/>
@@ -2375,6 +2417,98 @@
       <c r="I31" s="51"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="str" cm="1">
+        <f t="array" ref="F34:F39">_xlfn.IFS($C21=$B$8,$B$10:$B$15,$C21=$F$8,$F$10:$F$13,$C21=$J$8,$J$10:$J$11)</f>
+        <v>Husky</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <v>Torno</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" t="str">
+        <v>CNC</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="F37" t="str">
+        <v>Fresadora</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Forno 1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Roletes</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -2426,17 +2560,72 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:G28" xr:uid="{84D5CEAF-9DEF-4602-B57D-7BA1C93CCCCD}">
+      <formula1>_xlfn.IFS($C21=$B$8,$B$10:$B$15,$C21=$F$8,$F$10:$F$13,$C21=$J$8,$J$10:$J$11)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE99BD4A-825F-469F-8A41-380EE66608CB}">
+          <x14:formula1>
+            <xm:f>Planilha1!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C21:D28</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445A2AE9-907C-4CA4-B079-9F735774085D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="107" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876EE434-FE84-4F69-B2A4-AB3035705526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A46742-8F5C-4D95-8AD9-3438DC5B9BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXERCÍCIO" sheetId="4" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="6" state="hidden" r:id="rId3"/>
+    <sheet name="DB Lista" sheetId="6" r:id="rId3"/>
     <sheet name="EXERCÍCIO-RESOLVIDO" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
   <si>
     <t>Manufatura</t>
   </si>
@@ -181,14 +181,21 @@
   </si>
   <si>
     <t>*resolução = aba oculta</t>
+  </si>
+  <si>
+    <t>ALERTA DE ESTOQUE!</t>
+  </si>
+  <si>
+    <t>Itens no seu pedido precisam da sua atenção!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -719,7 +726,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -819,18 +826,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,9 +841,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,15 +851,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,8 +983,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1600,7 +1620,7 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="B10" sqref="B10:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,9 +1948,10 @@
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2032,21 +2053,24 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="F8" s="66" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="F8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="J8" s="66" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="J8" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
@@ -2076,6 +2100,9 @@
       <c r="L9" s="25" t="s">
         <v>4</v>
       </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -2199,252 +2226,285 @@
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65" t="s">
+      <c r="I20" s="58"/>
+      <c r="J20" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="65"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f>IF(C21&lt;&gt;"",1,"")</f>
         <v>1</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59" t="s">
+      <c r="D21" s="54"/>
+      <c r="E21" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="58">
-        <v>1</v>
-      </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="109" cm="1">
-        <f t="array" ref="J21">_xlfn.IFS($C21=$B$8,IF(VLOOKUP($E21,$B$9:$D$15,2,FALSE)&gt;=$H21,VLOOKUP($E21,$B$9:$D$15,3,FALSE)*$H21,"Qtd fora de estoque!"))</f>
-        <v>50000</v>
-      </c>
-      <c r="K21" s="109"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="54">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="102" cm="1">
+        <f t="array" ref="J21">IFERROR(_xlfn.IFS($C21=$B$8,IF(VLOOKUP($E21,$B$9:$D$15,2,FALSE)&gt;=$H21,VLOOKUP($E21,$B$9:$D$15,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
+$C21=$F$8,IF(VLOOKUP($E21,$F$9:$H$13,2,FALSE)&gt;=$H21,VLOOKUP($E21,$F$9:$H$13,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
+$C21=$J$8,IF(VLOOKUP($E21,$J$9:$L$11,2,FALSE)&gt;=$H21,VLOOKUP($E21,$J$9:$L$11,3,FALSE)*$H21,"ALERTA DE ESTOQUE!")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="102"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <f>IF(C22&lt;&gt;"",B21+1,"")</f>
         <v>2</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54" t="s">
+      <c r="D22" s="50"/>
+      <c r="E22" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="53">
-        <v>2</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="50">
+        <v>1</v>
+      </c>
+      <c r="I22" s="50"/>
+      <c r="J22" s="103" cm="1">
+        <f t="array" ref="J22">IFERROR(_xlfn.IFS($C22=$B$8,IF(VLOOKUP($E22,$B$9:$D$15,2,FALSE)&gt;=$H22,VLOOKUP($E22,$B$9:$D$15,3,FALSE)*$H22,"ALERTA DE ESTOQUE!"),
+$C22=$F$8,IF(VLOOKUP($E22,$F$9:$H$13,2,FALSE)&gt;=$H22,VLOOKUP($E22,$F$9:$H$13,3,FALSE)*$H22,"ALERTA DE ESTOQUE!"),
+$C22=$J$8,IF(VLOOKUP($E22,$J$9:$L$11,2,FALSE)&gt;=$H22,VLOOKUP($E22,$J$9:$L$11,3,FALSE)*$H22,"ALERTA DE ESTOQUE!")),"")</f>
+        <v>5000</v>
+      </c>
+      <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" ref="B23:B28" si="0">IF(C23&lt;&gt;"",B22+1,"")</f>
         <v>3</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="59" t="s">
+      <c r="D23" s="57"/>
+      <c r="E23" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="58">
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="54">
         <v>1</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="54"/>
+      <c r="J23" s="105" cm="1">
+        <f t="array" ref="J23">IFERROR(_xlfn.IFS($C23=$B$8,IF(VLOOKUP($E23,$B$9:$D$15,2,FALSE)&gt;=$H23,VLOOKUP($E23,$B$9:$D$15,3,FALSE)*$H23,"ALERTA DE ESTOQUE!"),
+$C23=$F$8,IF(VLOOKUP($E23,$F$9:$H$13,2,FALSE)&gt;=$H23,VLOOKUP($E23,$F$9:$H$13,3,FALSE)*$H23,"ALERTA DE ESTOQUE!"),
+$C23=$J$8,IF(VLOOKUP($E23,$J$9:$L$11,2,FALSE)&gt;=$H23,VLOOKUP($E23,$J$9:$L$11,3,FALSE)*$H23,"ALERTA DE ESTOQUE!")),"")</f>
+        <v>250</v>
+      </c>
+      <c r="K23" s="106"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="54" t="s">
+      <c r="D24" s="53"/>
+      <c r="E24" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53">
-        <v>2</v>
-      </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="50">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50"/>
+      <c r="J24" s="103" cm="1">
+        <f t="array" ref="J24">IFERROR(_xlfn.IFS($C24=$B$8,IF(VLOOKUP($E24,$B$9:$D$15,2,FALSE)&gt;=$H24,VLOOKUP($E24,$B$9:$D$15,3,FALSE)*$H24,"ALERTA DE ESTOQUE!"),
+$C24=$F$8,IF(VLOOKUP($E24,$F$9:$H$13,2,FALSE)&gt;=$H24,VLOOKUP($E24,$F$9:$H$13,3,FALSE)*$H24,"ALERTA DE ESTOQUE!"),
+$C24=$J$8,IF(VLOOKUP($E24,$J$9:$L$11,2,FALSE)&gt;=$H24,VLOOKUP($E24,$J$9:$L$11,3,FALSE)*$H24,"ALERTA DE ESTOQUE!")),"")</f>
+        <v>320</v>
+      </c>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="str">
+      <c r="B25" s="27">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
+        <v>5</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="54">
+        <v>1</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="105" cm="1">
+        <f t="array" ref="J25">IFERROR(_xlfn.IFS($C25=$B$8,IF(VLOOKUP($E25,$B$9:$D$15,2,FALSE)&gt;=$H25,VLOOKUP($E25,$B$9:$D$15,3,FALSE)*$H25,"ALERTA DE ESTOQUE!"),
+$C25=$F$8,IF(VLOOKUP($E25,$F$9:$H$13,2,FALSE)&gt;=$H25,VLOOKUP($E25,$F$9:$H$13,3,FALSE)*$H25,"ALERTA DE ESTOQUE!"),
+$C25=$J$8,IF(VLOOKUP($E25,$J$9:$L$11,2,FALSE)&gt;=$H25,VLOOKUP($E25,$J$9:$L$11,3,FALSE)*$H25,"ALERTA DE ESTOQUE!")),"")</f>
+        <v>5000</v>
+      </c>
+      <c r="K25" s="106"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="103" t="str" cm="1">
+        <f t="array" ref="J26">IFERROR(_xlfn.IFS($C26=$B$8,IF(VLOOKUP($E26,$B$9:$D$15,2,FALSE)&gt;=$H26,VLOOKUP($E26,$B$9:$D$15,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
+$C26=$F$8,IF(VLOOKUP($E26,$F$9:$H$13,2,FALSE)&gt;=$H26,VLOOKUP($E26,$F$9:$H$13,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
+$C26=$J$8,IF(VLOOKUP($E26,$J$9:$L$11,2,FALSE)&gt;=$H26,VLOOKUP($E26,$J$9:$L$11,3,FALSE)*$H26,"ALERTA DE ESTOQUE!")),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="104"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="105" t="str" cm="1">
+        <f t="array" ref="J27">IFERROR(_xlfn.IFS($C27=$B$8,IF(VLOOKUP($E27,$B$9:$D$15,2,FALSE)&gt;=$H27,VLOOKUP($E27,$B$9:$D$15,3,FALSE)*$H27,"ALERTA DE ESTOQUE!"),
+$C27=$F$8,IF(VLOOKUP($E27,$F$9:$H$13,2,FALSE)&gt;=$H27,VLOOKUP($E27,$F$9:$H$13,3,FALSE)*$H27,"ALERTA DE ESTOQUE!"),
+$C27=$J$8,IF(VLOOKUP($E27,$J$9:$L$11,2,FALSE)&gt;=$H27,VLOOKUP($E27,$J$9:$L$11,3,FALSE)*$H27,"ALERTA DE ESTOQUE!")),"")</f>
+        <v/>
+      </c>
+      <c r="K27" s="106"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="49" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="103" t="str" cm="1">
+        <f t="array" ref="J28">IFERROR(_xlfn.IFS($C28=$B$8,IF(VLOOKUP($E28,$B$9:$D$15,2,FALSE)&gt;=$H28,VLOOKUP($E28,$B$9:$D$15,3,FALSE)*$H28,"ALERTA DE ESTOQUE!"),
+$C28=$F$8,IF(VLOOKUP($E28,$F$9:$H$13,2,FALSE)&gt;=$H28,VLOOKUP($E28,$F$9:$H$13,3,FALSE)*$H28,"ALERTA DE ESTOQUE!"),
+$C28=$J$8,IF(VLOOKUP($E28,$J$9:$L$11,2,FALSE)&gt;=$H28,VLOOKUP($E28,$J$9:$L$11,3,FALSE)*$H28,"ALERTA DE ESTOQUE!")),"")</f>
+        <v/>
+      </c>
+      <c r="K28" s="104"/>
+    </row>
+    <row r="29" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H30" s="49" t="s">
+      <c r="I29" s="107"/>
+      <c r="J29" s="112">
+        <f>IFERROR(IF(VLOOKUP($N$8,$J$21:$K$28,1,FALSE)=$N$8,$N$9),SUM($J$21:$K$28))</f>
+        <v>10570</v>
+      </c>
+      <c r="K29" s="112"/>
+    </row>
+    <row r="30" spans="2:11" s="113" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="114" cm="1">
+        <f t="array" ref="J30">_xlfn.IFS($J$29=$N$9,"",$J$29&lt;='DB Lista'!B2,0,$J$29&gt;'DB Lista'!$B$4,'DB Lista'!C4,AND($J$29&gt;'DB Lista'!$B$3,$J$29&lt;'DB Lista'!$B$4),'DB Lista'!$C$3,AND($J$29&gt;'DB Lista'!$B$2,$J$29&lt;'DB Lista'!$B$3),'DB Lista'!C2)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K30" s="114"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H31" s="51" t="s">
+      <c r="H31" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="51"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F34" t="str" cm="1">
-        <f t="array" ref="F34:F39">_xlfn.IFS($C21=$B$8,$B$10:$B$15,$C21=$F$8,$F$10:$F$13,$C21=$J$8,$J$10:$J$11)</f>
-        <v>Husky</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F35" t="str">
-        <v>Torno</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" t="str">
-        <v>CNC</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="I31" s="49"/>
+      <c r="J31" s="111">
+        <f>IFERROR($J$29-($J$29*$J$30),"")</f>
+        <v>9830.1</v>
+      </c>
+      <c r="K31" s="111"/>
+    </row>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
-      <c r="F37" t="str">
-        <v>Fresadora</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>30</v>
       </c>
@@ -2452,11 +2512,8 @@
       <c r="D38" s="19">
         <v>0.04</v>
       </c>
-      <c r="F38" t="str">
-        <v>Forno 1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
         <v>31</v>
       </c>
@@ -2464,11 +2521,8 @@
       <c r="D39" s="19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F39" t="str">
-        <v>Roletes</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="20" t="s">
         <v>32</v>
       </c>
@@ -2477,8 +2531,8 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>33</v>
       </c>
@@ -2486,7 +2540,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
         <v>34</v>
       </c>
@@ -2494,7 +2548,7 @@
       <c r="D43" s="18"/>
       <c r="E43" s="23"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
         <v>35</v>
       </c>
@@ -2502,7 +2556,7 @@
       <c r="D44" s="18"/>
       <c r="E44" s="23"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>36</v>
       </c>
@@ -2572,7 +2626,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE99BD4A-825F-469F-8A41-380EE66608CB}">
           <x14:formula1>
-            <xm:f>Planilha1!$A$2:$A$4</xm:f>
+            <xm:f>'DB Lista'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>C21:D28</xm:sqref>
         </x14:dataValidation>
@@ -2584,38 +2638,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445A2AE9-907C-4CA4-B079-9F735774085D}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="B1" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="109"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="B2" s="101">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="110">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="101" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="B3" s="101">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="110">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="101">
+        <v>25000</v>
+      </c>
+      <c r="C4" s="110">
+        <v>0.11</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2637,114 +2717,114 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="str">
+      <c r="B2" s="69" t="str">
         <f>CONTEÚDO!B2</f>
         <v>Super Exercício #3</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="78"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="81"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="79"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="81"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="74"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="79"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="81"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="84"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="F8" s="85" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="F8" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="J8" s="85" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="J8" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -2896,258 +2976,258 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="88"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="74"/>
-      <c r="E20" s="73" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="73" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="73" t="s">
+      <c r="I20" s="67"/>
+      <c r="J20" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="74"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="92" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92">
+      <c r="F21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="85">
         <v>2</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="95" t="str">
+      <c r="I21" s="86"/>
+      <c r="J21" s="88" t="str">
         <f>IFERROR(IF(VLOOKUP(E21,IF($C21=$B$8,$B$10:$D$15,IF($C21=$F$8,$F$10:$H$13,IF($C21=$J$8,$J$10:$L$11,""))),2,0)&lt;H21,"ALERTA ESTOQUE!",VLOOKUP(E21,IF($C21=$B$8,$B$10:$D$15,IF($C21=$F$8,$F$10:$H$13,IF($C21=$J$8,$J$10:$L$11,""))),3,0)*H21),"&lt;- Verifique")</f>
         <v>ALERTA ESTOQUE!</v>
       </c>
-      <c r="K21" s="96"/>
+      <c r="K21" s="89"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <f>B21+1</f>
         <v>2</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="92" t="s">
+      <c r="D22" s="86"/>
+      <c r="E22" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="94"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="92">
+      <c r="F22" s="87"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="85">
         <v>2</v>
       </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="95">
+      <c r="I22" s="86"/>
+      <c r="J22" s="88">
         <f t="shared" ref="J22:J26" si="0">IFERROR(IF(VLOOKUP(E22,IF($C22=$B$8,$B$10:$D$15,IF($C22=$F$8,$F$10:$H$13,IF($C22=$J$8,$J$10:$L$11,""))),2,0)&lt;H22,"ALERTA ESTOQUE!",VLOOKUP(E22,IF($C22=$B$8,$B$10:$D$15,IF($C22=$F$8,$F$10:$H$13,IF($C22=$J$8,$J$10:$L$11,""))),3,0)*H22),"&lt;- Verifique")</f>
         <v>18000</v>
       </c>
-      <c r="K22" s="96"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <f t="shared" ref="B23:B28" si="1">B22+1</f>
         <v>3</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="92" t="s">
+      <c r="D23" s="86"/>
+      <c r="E23" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="92">
+      <c r="F23" s="87"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="85">
         <v>2</v>
       </c>
-      <c r="I23" s="93"/>
-      <c r="J23" s="95" t="str">
+      <c r="I23" s="86"/>
+      <c r="J23" s="88" t="str">
         <f t="shared" si="0"/>
         <v>&lt;- Verifique</v>
       </c>
-      <c r="K23" s="96"/>
+      <c r="K23" s="89"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="92" t="s">
+      <c r="D24" s="86"/>
+      <c r="E24" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="92">
+      <c r="F24" s="87"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="85">
         <v>2</v>
       </c>
-      <c r="I24" s="93"/>
-      <c r="J24" s="95">
+      <c r="I24" s="86"/>
+      <c r="J24" s="88">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="K24" s="96"/>
+      <c r="K24" s="89"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="92" t="s">
+      <c r="D25" s="86"/>
+      <c r="E25" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="92">
+      <c r="F25" s="87"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="85">
         <v>2</v>
       </c>
-      <c r="I25" s="93"/>
-      <c r="J25" s="95" t="str">
+      <c r="I25" s="86"/>
+      <c r="J25" s="88" t="str">
         <f t="shared" si="0"/>
         <v>ALERTA ESTOQUE!</v>
       </c>
-      <c r="K25" s="96"/>
+      <c r="K25" s="89"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92" t="s">
+      <c r="D26" s="86"/>
+      <c r="E26" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="92">
+      <c r="F26" s="87"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="85">
         <v>1</v>
       </c>
-      <c r="I26" s="93"/>
-      <c r="J26" s="95">
+      <c r="I26" s="86"/>
+      <c r="J26" s="88">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="K26" s="96"/>
+      <c r="K26" s="89"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H29" s="97" t="s">
+      <c r="H29" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99">
+      <c r="I29" s="91"/>
+      <c r="J29" s="92">
         <f>SUM(J21:K28)</f>
         <v>36200</v>
       </c>
-      <c r="K29" s="100"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H30" s="97" t="s">
+      <c r="H30" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="101">
+      <c r="I30" s="91"/>
+      <c r="J30" s="94">
         <f>IF(J29&gt;25000,0.11,IF(J29&gt;10000,0.07,IF(J29&gt;5000,0.04,0)))</f>
         <v>0.11</v>
       </c>
-      <c r="K30" s="102"/>
+      <c r="K30" s="95"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="104"/>
-      <c r="J31" s="105">
+      <c r="I31" s="97"/>
+      <c r="J31" s="98">
         <f>J29*(1-J30)</f>
         <v>32218</v>
       </c>
-      <c r="K31" s="106"/>
+      <c r="K31" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="47">

--- a/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A46742-8F5C-4D95-8AD9-3438DC5B9BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33573FE-DA78-4D28-B423-18651AD5E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
     <sheet name="EXERCÍCIO" sheetId="4" r:id="rId2"/>
-    <sheet name="DB Lista" sheetId="6" r:id="rId3"/>
+    <sheet name="DB Lista" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="EXERCÍCIO-RESOLVIDO" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="43">
   <si>
     <t>Manufatura</t>
   </si>
@@ -726,7 +726,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -1020,13 +1020,54 @@
     <xf numFmtId="9" fontId="1" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1062,6 +1103,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFDD"/>
       <color rgb="FF224086"/>
       <color rgb="FFD1DCF3"/>
       <color rgb="FF6F90DB"/>
@@ -1939,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1992,7 @@
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2225,7 +2267,7 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="60" t="s">
         <v>38</v>
       </c>
@@ -2239,7 +2281,7 @@
       <c r="J17" s="61"/>
       <c r="K17" s="62"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="63"/>
       <c r="C18" s="64"/>
       <c r="D18" s="64"/>
@@ -2251,8 +2293,8 @@
       <c r="J18" s="64"/>
       <c r="K18" s="65"/>
     </row>
-    <row r="19" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>19</v>
       </c>
@@ -2274,7 +2316,7 @@
       </c>
       <c r="K20" s="58"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <f>IF(C21&lt;&gt;"",1,"")</f>
         <v>1</v>
@@ -2289,18 +2331,18 @@
       <c r="F21" s="56"/>
       <c r="G21" s="57"/>
       <c r="H21" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="102" cm="1">
         <f t="array" ref="J21">IFERROR(_xlfn.IFS($C21=$B$8,IF(VLOOKUP($E21,$B$9:$D$15,2,FALSE)&gt;=$H21,VLOOKUP($E21,$B$9:$D$15,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
 $C21=$F$8,IF(VLOOKUP($E21,$F$9:$H$13,2,FALSE)&gt;=$H21,VLOOKUP($E21,$F$9:$H$13,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
 $C21=$J$8,IF(VLOOKUP($E21,$J$9:$L$11,2,FALSE)&gt;=$H21,VLOOKUP($E21,$J$9:$L$11,3,FALSE)*$H21,"ALERTA DE ESTOQUE!")),"")</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="28">
         <f>IF(C22&lt;&gt;"",B21+1,"")</f>
         <v>2</v>
@@ -2326,7 +2368,7 @@
       </c>
       <c r="K22" s="104"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <f t="shared" ref="B23:B28" si="0">IF(C23&lt;&gt;"",B22+1,"")</f>
         <v>3</v>
@@ -2352,7 +2394,7 @@
       </c>
       <c r="K23" s="106"/>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2378,7 +2420,7 @@
       </c>
       <c r="K24" s="104"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2404,27 +2446,33 @@
       </c>
       <c r="K25" s="106"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="str">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="28">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C26" s="51"/>
+        <v>6</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>0</v>
+      </c>
       <c r="D26" s="53"/>
-      <c r="E26" s="51"/>
+      <c r="E26" s="51" t="s">
+        <v>16</v>
+      </c>
       <c r="F26" s="52"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="50"/>
+      <c r="H26" s="50">
+        <v>2</v>
+      </c>
       <c r="I26" s="50"/>
-      <c r="J26" s="103" t="str" cm="1">
+      <c r="J26" s="103" cm="1">
         <f t="array" ref="J26">IFERROR(_xlfn.IFS($C26=$B$8,IF(VLOOKUP($E26,$B$9:$D$15,2,FALSE)&gt;=$H26,VLOOKUP($E26,$B$9:$D$15,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
 $C26=$F$8,IF(VLOOKUP($E26,$F$9:$H$13,2,FALSE)&gt;=$H26,VLOOKUP($E26,$F$9:$H$13,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
 $C26=$J$8,IF(VLOOKUP($E26,$J$9:$L$11,2,FALSE)&gt;=$H26,VLOOKUP($E26,$J$9:$L$11,3,FALSE)*$H26,"ALERTA DE ESTOQUE!")),"")</f>
-        <v/>
+        <v>2400</v>
       </c>
       <c r="K26" s="104"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2444,7 +2492,7 @@
       </c>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2464,38 +2512,39 @@
       </c>
       <c r="K28" s="104"/>
     </row>
-    <row r="29" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H29" s="107" t="s">
         <v>26</v>
       </c>
       <c r="I29" s="107"/>
       <c r="J29" s="112">
         <f>IFERROR(IF(VLOOKUP($N$8,$J$21:$K$28,1,FALSE)=$N$8,$N$9),SUM($J$21:$K$28))</f>
-        <v>10570</v>
+        <v>62970</v>
       </c>
       <c r="K29" s="112"/>
     </row>
-    <row r="30" spans="2:11" s="113" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" s="113" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H30" s="107" t="s">
         <v>24</v>
       </c>
       <c r="I30" s="107"/>
       <c r="J30" s="114" cm="1">
         <f t="array" ref="J30">_xlfn.IFS($J$29=$N$9,"",$J$29&lt;='DB Lista'!B2,0,$J$29&gt;'DB Lista'!$B$4,'DB Lista'!C4,AND($J$29&gt;'DB Lista'!$B$3,$J$29&lt;'DB Lista'!$B$4),'DB Lista'!$C$3,AND($J$29&gt;'DB Lista'!$B$2,$J$29&lt;'DB Lista'!$B$3),'DB Lista'!C2)</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="K30" s="114"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H31" s="49" t="s">
         <v>25</v>
       </c>
       <c r="I31" s="49"/>
       <c r="J31" s="111">
-        <f>IFERROR($J$29-($J$29*$J$30),"")</f>
-        <v>9830.1</v>
+        <f>IFERROR($J$29*(1-$J$30),"")</f>
+        <v>56043.3</v>
       </c>
       <c r="K31" s="111"/>
+      <c r="L31" s="115"/>
     </row>
     <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
@@ -2614,6 +2663,20 @@
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
   </mergeCells>
+  <conditionalFormatting sqref="B21:K28">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF($C21=$B$8,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF($C21=$F$8,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF($C21=$J$8,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF($C21="",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:G28" xr:uid="{84D5CEAF-9DEF-4602-B57D-7BA1C93CCCCD}">
       <formula1>_xlfn.IFS($C21=$B$8,$B$10:$B$15,$C21=$F$8,$F$10:$F$13,$C21=$J$8,$J$10:$J$11)</formula1>
@@ -3280,18 +3343,18 @@
     <mergeCell ref="B17:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="B21:K22 C23:K26 B23:B28">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>$C21=$J$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$C21=$F$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$C21=$B$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:K28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"ALERTA ESTOQUE!"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 49 - Super exercicio III (Anexo).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33573FE-DA78-4D28-B423-18651AD5E856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A3AE6-3A99-4CC3-8FD2-344793359CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,10 +2334,27 @@
         <v>1</v>
       </c>
       <c r="I21" s="54"/>
-      <c r="J21" s="102" cm="1">
-        <f t="array" ref="J21">IFERROR(_xlfn.IFS($C21=$B$8,IF(VLOOKUP($E21,$B$9:$D$15,2,FALSE)&gt;=$H21,VLOOKUP($E21,$B$9:$D$15,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
-$C21=$F$8,IF(VLOOKUP($E21,$F$9:$H$13,2,FALSE)&gt;=$H21,VLOOKUP($E21,$F$9:$H$13,3,FALSE)*$H21,"ALERTA DE ESTOQUE!"),
-$C21=$J$8,IF(VLOOKUP($E21,$J$9:$L$11,2,FALSE)&gt;=$H21,VLOOKUP($E21,$J$9:$L$11,3,FALSE)*$H21,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J21" s="102">
+        <f>IFERROR(
+    _xlfn.LET(
+        _xlpm.intervalo,
+        IF(
+            $C21=$B$8,$B$10:$D$15,
+            IF(
+                $C21=$F$8,$F$10:$H$13,
+                IF($C21=$J$8,$J$10:$L$11,"")
+            )
+        ),
+        _xlpm.estoque, VLOOKUP($E21,_xlpm.intervalo,2,FALSE),
+        _xlpm.valor, VLOOKUP($E21,_xlpm.intervalo,3,FALSE),
+        IF(
+            OR(ISERR(_xlpm.estoque),ISERR(_xlpm.valor)),
+            "ITEM INVÁLIDO",
+            IF(_xlpm.estoque&lt;$H21,"ALERTA ESTOQUE!",_xlpm.valor*$H21)
+        )
+    ),
+    "&lt;- Verifique"
+)</f>
         <v>50000</v>
       </c>
       <c r="K21" s="102"/>
@@ -2360,17 +2377,34 @@
         <v>1</v>
       </c>
       <c r="I22" s="50"/>
-      <c r="J22" s="103" cm="1">
-        <f t="array" ref="J22">IFERROR(_xlfn.IFS($C22=$B$8,IF(VLOOKUP($E22,$B$9:$D$15,2,FALSE)&gt;=$H22,VLOOKUP($E22,$B$9:$D$15,3,FALSE)*$H22,"ALERTA DE ESTOQUE!"),
-$C22=$F$8,IF(VLOOKUP($E22,$F$9:$H$13,2,FALSE)&gt;=$H22,VLOOKUP($E22,$F$9:$H$13,3,FALSE)*$H22,"ALERTA DE ESTOQUE!"),
-$C22=$J$8,IF(VLOOKUP($E22,$J$9:$L$11,2,FALSE)&gt;=$H22,VLOOKUP($E22,$J$9:$L$11,3,FALSE)*$H22,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J22" s="103">
+        <f t="shared" ref="J22:J28" si="0">IFERROR(
+    _xlfn.LET(
+        _xlpm.intervalo,
+        IF(
+            $C22=$B$8,$B$10:$D$15,
+            IF(
+                $C22=$F$8,$F$10:$H$13,
+                IF($C22=$J$8,$J$10:$L$11,"")
+            )
+        ),
+        _xlpm.estoque, VLOOKUP($E22,_xlpm.intervalo,2,FALSE),
+        _xlpm.valor, VLOOKUP($E22,_xlpm.intervalo,3,FALSE),
+        IF(
+            OR(ISERR(_xlpm.estoque),ISERR(_xlpm.valor)),
+            "ITEM INVÁLIDO",
+            IF(_xlpm.estoque&lt;$H22,"ALERTA ESTOQUE!",_xlpm.valor*$H22)
+        )
+    ),
+    "&lt;- Verifique"
+)</f>
         <v>5000</v>
       </c>
       <c r="K22" s="104"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
-        <f t="shared" ref="B23:B28" si="0">IF(C23&lt;&gt;"",B22+1,"")</f>
+        <f t="shared" ref="B23:B28" si="1">IF(C23&lt;&gt;"",B22+1,"")</f>
         <v>3</v>
       </c>
       <c r="C23" s="55" t="s">
@@ -2386,17 +2420,15 @@
         <v>1</v>
       </c>
       <c r="I23" s="54"/>
-      <c r="J23" s="105" cm="1">
-        <f t="array" ref="J23">IFERROR(_xlfn.IFS($C23=$B$8,IF(VLOOKUP($E23,$B$9:$D$15,2,FALSE)&gt;=$H23,VLOOKUP($E23,$B$9:$D$15,3,FALSE)*$H23,"ALERTA DE ESTOQUE!"),
-$C23=$F$8,IF(VLOOKUP($E23,$F$9:$H$13,2,FALSE)&gt;=$H23,VLOOKUP($E23,$F$9:$H$13,3,FALSE)*$H23,"ALERTA DE ESTOQUE!"),
-$C23=$J$8,IF(VLOOKUP($E23,$J$9:$L$11,2,FALSE)&gt;=$H23,VLOOKUP($E23,$J$9:$L$11,3,FALSE)*$H23,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J23" s="105">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K23" s="106"/>
     </row>
     <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C24" s="51" t="s">
@@ -2412,17 +2444,15 @@
         <v>1</v>
       </c>
       <c r="I24" s="50"/>
-      <c r="J24" s="103" cm="1">
-        <f t="array" ref="J24">IFERROR(_xlfn.IFS($C24=$B$8,IF(VLOOKUP($E24,$B$9:$D$15,2,FALSE)&gt;=$H24,VLOOKUP($E24,$B$9:$D$15,3,FALSE)*$H24,"ALERTA DE ESTOQUE!"),
-$C24=$F$8,IF(VLOOKUP($E24,$F$9:$H$13,2,FALSE)&gt;=$H24,VLOOKUP($E24,$F$9:$H$13,3,FALSE)*$H24,"ALERTA DE ESTOQUE!"),
-$C24=$J$8,IF(VLOOKUP($E24,$J$9:$L$11,2,FALSE)&gt;=$H24,VLOOKUP($E24,$J$9:$L$11,3,FALSE)*$H24,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J24" s="103">
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C25" s="55" t="s">
@@ -2438,17 +2468,15 @@
         <v>1</v>
       </c>
       <c r="I25" s="54"/>
-      <c r="J25" s="105" cm="1">
-        <f t="array" ref="J25">IFERROR(_xlfn.IFS($C25=$B$8,IF(VLOOKUP($E25,$B$9:$D$15,2,FALSE)&gt;=$H25,VLOOKUP($E25,$B$9:$D$15,3,FALSE)*$H25,"ALERTA DE ESTOQUE!"),
-$C25=$F$8,IF(VLOOKUP($E25,$F$9:$H$13,2,FALSE)&gt;=$H25,VLOOKUP($E25,$F$9:$H$13,3,FALSE)*$H25,"ALERTA DE ESTOQUE!"),
-$C25=$J$8,IF(VLOOKUP($E25,$J$9:$L$11,2,FALSE)&gt;=$H25,VLOOKUP($E25,$J$9:$L$11,3,FALSE)*$H25,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J25" s="105">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
       <c r="K25" s="106"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C26" s="51" t="s">
@@ -2464,17 +2492,15 @@
         <v>2</v>
       </c>
       <c r="I26" s="50"/>
-      <c r="J26" s="103" cm="1">
-        <f t="array" ref="J26">IFERROR(_xlfn.IFS($C26=$B$8,IF(VLOOKUP($E26,$B$9:$D$15,2,FALSE)&gt;=$H26,VLOOKUP($E26,$B$9:$D$15,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
-$C26=$F$8,IF(VLOOKUP($E26,$F$9:$H$13,2,FALSE)&gt;=$H26,VLOOKUP($E26,$F$9:$H$13,3,FALSE)*$H26,"ALERTA DE ESTOQUE!"),
-$C26=$J$8,IF(VLOOKUP($E26,$J$9:$L$11,2,FALSE)&gt;=$H26,VLOOKUP($E26,$J$9:$L$11,3,FALSE)*$H26,"ALERTA DE ESTOQUE!")),"")</f>
+      <c r="J26" s="103">
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="K26" s="104"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C27" s="55"/>
@@ -2484,17 +2510,15 @@
       <c r="G27" s="57"/>
       <c r="H27" s="54"/>
       <c r="I27" s="54"/>
-      <c r="J27" s="105" t="str" cm="1">
-        <f t="array" ref="J27">IFERROR(_xlfn.IFS($C27=$B$8,IF(VLOOKUP($E27,$B$9:$D$15,2,FALSE)&gt;=$H27,VLOOKUP($E27,$B$9:$D$15,3,FALSE)*$H27,"ALERTA DE ESTOQUE!"),
-$C27=$F$8,IF(VLOOKUP($E27,$F$9:$H$13,2,FALSE)&gt;=$H27,VLOOKUP($E27,$F$9:$H$13,3,FALSE)*$H27,"ALERTA DE ESTOQUE!"),
-$C27=$J$8,IF(VLOOKUP($E27,$J$9:$L$11,2,FALSE)&gt;=$H27,VLOOKUP($E27,$J$9:$L$11,3,FALSE)*$H27,"ALERTA DE ESTOQUE!")),"")</f>
-        <v/>
+      <c r="J27" s="105" t="str">
+        <f t="shared" si="0"/>
+        <v>ITEM INVÁLIDO</v>
       </c>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C28" s="51"/>
@@ -2504,11 +2528,9 @@
       <c r="G28" s="53"/>
       <c r="H28" s="50"/>
       <c r="I28" s="50"/>
-      <c r="J28" s="103" t="str" cm="1">
-        <f t="array" ref="J28">IFERROR(_xlfn.IFS($C28=$B$8,IF(VLOOKUP($E28,$B$9:$D$15,2,FALSE)&gt;=$H28,VLOOKUP($E28,$B$9:$D$15,3,FALSE)*$H28,"ALERTA DE ESTOQUE!"),
-$C28=$F$8,IF(VLOOKUP($E28,$F$9:$H$13,2,FALSE)&gt;=$H28,VLOOKUP($E28,$F$9:$H$13,3,FALSE)*$H28,"ALERTA DE ESTOQUE!"),
-$C28=$J$8,IF(VLOOKUP($E28,$J$9:$L$11,2,FALSE)&gt;=$H28,VLOOKUP($E28,$J$9:$L$11,3,FALSE)*$H28,"ALERTA DE ESTOQUE!")),"")</f>
-        <v/>
+      <c r="J28" s="103" t="str">
+        <f t="shared" si="0"/>
+        <v>ITEM INVÁLIDO</v>
       </c>
       <c r="K28" s="104"/>
     </row>
@@ -2768,7 +2790,7 @@
   <dimension ref="B2:Q31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
